--- a/Replication Package/documentation/rider-audits/compliance-pilot/codebooks/demo.xlsx
+++ b/Replication Package/documentation/rider-audits/compliance-pilot/codebooks/demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\rio_vagao_rosa\documentation\rider-audits\compliance-pilot\codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2660C268-D461-4F5F-BD0C-02FDD1546F62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29CD59F-EBDA-4F23-BA55-80B9D5073BC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -345,9 +345,6 @@
     <t>Not applicable</t>
   </si>
   <si>
-    <t>2=0) (3=.)</t>
-  </si>
-  <si>
     <t>(2=0) (4=2) (5=4)</t>
   </si>
   <si>
@@ -388,6 +385,9 @@
   </si>
   <si>
     <t>Demo - share of income coming from rides</t>
+  </si>
+  <si>
+    <t>(2=0) (3=.)</t>
   </si>
 </sst>
 </file>
@@ -739,7 +739,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -912,7 +912,7 @@
         <v>63</v>
       </c>
       <c r="I6" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -964,7 +964,7 @@
         <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -990,7 +990,7 @@
         <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1036,7 +1036,7 @@
         <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
         <v>63</v>
@@ -1120,7 +1120,7 @@
         <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1437,7 +1437,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="E27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1563,7 +1563,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1574,7 +1574,7 @@
         <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1585,7 +1585,7 @@
         <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1596,7 +1596,7 @@
         <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1651,7 +1651,7 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1662,7 +1662,7 @@
         <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1673,7 +1673,7 @@
         <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:3">
